--- a/projeto/dados_clientes.xlsx
+++ b/projeto/dados_clientes.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ângelo</t>
+          <t>Angelo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
